--- a/MB51/Input/1449.XLSX
+++ b/MB51/Input/1449.XLSX
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stronghold\Desktop\portfolio\SAP_MB51_TRANSFER\MB51\Input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA208D2-0FC5-43F1-A7CE-D0FCB19AF170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -211,21 +220,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,18 +237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,12 +265,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -299,43 +285,345 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="K2" sqref="K2:K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="20" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="7" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="6" customWidth="1"/>
-    <col min="4" max="4" bestFit="1" width="5" customWidth="1"/>
-    <col min="5" max="5" bestFit="1" width="15" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="19" customWidth="1"/>
-    <col min="7" max="7" bestFit="1" width="12" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="14" customWidth="1"/>
-    <col min="9" max="9" bestFit="1" width="13" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="5" customWidth="1"/>
-    <col min="11" max="11" bestFit="1" width="14" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
@@ -373,7 +661,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -399,19 +687,19 @@
         <v>43754</v>
       </c>
       <c r="I2" s="3">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="4">
-        <v>-52.03</v>
+        <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -443,13 +731,13 @@
         <v>7</v>
       </c>
       <c r="K3" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L3" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -475,19 +763,19 @@
         <v>43754</v>
       </c>
       <c r="I4" s="3">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="4">
-        <v>-115.36</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -519,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="K5" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -551,19 +839,19 @@
         <v>43754</v>
       </c>
       <c r="I6" s="3">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="4">
-        <v>-220.75</v>
+        <v>1</v>
       </c>
       <c r="L6" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -589,19 +877,19 @@
         <v>43754</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L7" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -627,19 +915,19 @@
         <v>43754</v>
       </c>
       <c r="I8" s="3">
-        <v>-2</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="s">
         <v>7</v>
       </c>
       <c r="K8" s="4">
-        <v>-24.32</v>
+        <v>1</v>
       </c>
       <c r="L8" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -665,19 +953,19 @@
         <v>43754</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L9" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -703,19 +991,19 @@
         <v>43754</v>
       </c>
       <c r="I10" s="3">
-        <v>-2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="4">
-        <v>-17.08</v>
+        <v>1</v>
       </c>
       <c r="L10" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -741,19 +1029,19 @@
         <v>43754</v>
       </c>
       <c r="I11" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="s">
         <v>7</v>
       </c>
       <c r="K11" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L11" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -779,19 +1067,19 @@
         <v>43754</v>
       </c>
       <c r="I12" s="3">
-        <v>-2</v>
+        <v>5.4</v>
       </c>
       <c r="J12" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="4">
-        <v>-28.44</v>
+        <v>1</v>
       </c>
       <c r="L12" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -817,19 +1105,19 @@
         <v>43754</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>5.8</v>
       </c>
       <c r="J13" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L13" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -855,19 +1143,19 @@
         <v>43754</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L14" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -893,19 +1181,19 @@
         <v>43754</v>
       </c>
       <c r="I15" s="3">
-        <v>-1</v>
+        <v>6.6</v>
       </c>
       <c r="J15" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="4">
-        <v>-18.50</v>
+        <v>1</v>
       </c>
       <c r="L15" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -931,19 +1219,19 @@
         <v>43754</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J16" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L16" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -969,19 +1257,19 @@
         <v>43754</v>
       </c>
       <c r="I17" s="3">
-        <v>-1</v>
+        <v>7.4</v>
       </c>
       <c r="J17" t="s">
         <v>7</v>
       </c>
       <c r="K17" s="4">
-        <v>-18.50</v>
+        <v>1</v>
       </c>
       <c r="L17" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1007,19 +1295,19 @@
         <v>43754</v>
       </c>
       <c r="I18" s="3">
-        <v>-1</v>
+        <v>7.8</v>
       </c>
       <c r="J18" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="4">
-        <v>-18.50</v>
+        <v>1</v>
       </c>
       <c r="L18" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1045,19 +1333,19 @@
         <v>43754</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J19" t="s">
         <v>7</v>
       </c>
       <c r="K19" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L19" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1083,19 +1371,19 @@
         <v>43754</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L20" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1121,19 +1409,19 @@
         <v>43754</v>
       </c>
       <c r="I21" s="3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J21" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="4">
-        <v>-18.50</v>
+        <v>1</v>
       </c>
       <c r="L21" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1159,19 +1447,19 @@
         <v>43754</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>9.4</v>
       </c>
       <c r="J22" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L22" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1197,19 +1485,19 @@
         <v>43754</v>
       </c>
       <c r="I23" s="3">
-        <v>-1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J23" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="4">
-        <v>-18.50</v>
+        <v>1</v>
       </c>
       <c r="L23" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1235,19 +1523,19 @@
         <v>43754</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="J24" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L24" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1273,19 +1561,19 @@
         <v>43754</v>
       </c>
       <c r="I25" s="3">
-        <v>-1</v>
+        <v>10.6</v>
       </c>
       <c r="J25" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="4">
-        <v>-23.00</v>
+        <v>1</v>
       </c>
       <c r="L25" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1311,19 +1599,19 @@
         <v>43754</v>
       </c>
       <c r="I26" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J26" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L26" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1349,19 +1637,19 @@
         <v>43754</v>
       </c>
       <c r="I27" s="3">
-        <v>-3</v>
+        <v>11.4</v>
       </c>
       <c r="J27" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="4">
-        <v>-22.27</v>
+        <v>1</v>
       </c>
       <c r="L27" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1387,19 +1675,19 @@
         <v>43754</v>
       </c>
       <c r="I28" s="3">
-        <v>3</v>
+        <v>11.8</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
       </c>
       <c r="K28" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L28" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1425,19 +1713,19 @@
         <v>43754</v>
       </c>
       <c r="I29" s="3">
-        <v>-3</v>
+        <v>12.2</v>
       </c>
       <c r="J29" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="4">
-        <v>-83.77</v>
+        <v>1</v>
       </c>
       <c r="L29" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1463,19 +1751,19 @@
         <v>43754</v>
       </c>
       <c r="I30" s="3">
-        <v>-3</v>
+        <v>12.6</v>
       </c>
       <c r="J30" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="4">
-        <v>-115.76</v>
+        <v>1</v>
       </c>
       <c r="L30" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1501,19 +1789,19 @@
         <v>43754</v>
       </c>
       <c r="I31" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J31" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L31" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1539,19 +1827,19 @@
         <v>43754</v>
       </c>
       <c r="I32" s="3">
-        <v>3</v>
+        <v>13.4</v>
       </c>
       <c r="J32" t="s">
         <v>7</v>
       </c>
       <c r="K32" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L32" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1577,19 +1865,19 @@
         <v>43754</v>
       </c>
       <c r="I33" s="3">
-        <v>-3</v>
+        <v>13.8</v>
       </c>
       <c r="J33" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="4">
-        <v>-1080.07</v>
+        <v>1</v>
       </c>
       <c r="L33" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1615,19 +1903,19 @@
         <v>43754</v>
       </c>
       <c r="I34" s="3">
-        <v>3</v>
+        <v>14.2</v>
       </c>
       <c r="J34" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L34" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1653,19 +1941,19 @@
         <v>43754</v>
       </c>
       <c r="I35" s="3">
-        <v>-3</v>
+        <v>14.6</v>
       </c>
       <c r="J35" t="s">
         <v>7</v>
       </c>
       <c r="K35" s="4">
-        <v>-1162.75</v>
+        <v>1</v>
       </c>
       <c r="L35" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1691,19 +1979,19 @@
         <v>43754</v>
       </c>
       <c r="I36" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L36" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -1729,19 +2017,19 @@
         <v>43754</v>
       </c>
       <c r="I37" s="3">
-        <v>-4</v>
+        <v>15.4</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37" s="4">
-        <v>-618.86</v>
+        <v>1</v>
       </c>
       <c r="L37" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1767,19 +2055,19 @@
         <v>43754</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>15.8</v>
       </c>
       <c r="J38" t="s">
         <v>7</v>
       </c>
       <c r="K38" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L38" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1805,19 +2093,19 @@
         <v>43754</v>
       </c>
       <c r="I39" s="3">
-        <v>-1</v>
+        <v>16.2</v>
       </c>
       <c r="J39" t="s">
         <v>7</v>
       </c>
       <c r="K39" s="4">
-        <v>-79.74</v>
+        <v>1</v>
       </c>
       <c r="L39" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1843,19 +2131,19 @@
         <v>43754</v>
       </c>
       <c r="I40" s="3">
-        <v>9</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J40" t="s">
         <v>7</v>
       </c>
       <c r="K40" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L40" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1881,19 +2169,19 @@
         <v>43754</v>
       </c>
       <c r="I41" s="3">
-        <v>-9</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
         <v>7</v>
       </c>
       <c r="K41" s="4">
-        <v>-135.03</v>
+        <v>1</v>
       </c>
       <c r="L41" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1919,19 +2207,19 @@
         <v>43754</v>
       </c>
       <c r="I42" s="3">
-        <v>36</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J42" t="s">
         <v>7</v>
       </c>
       <c r="K42" s="4">
-        <v>0.00</v>
+        <v>1</v>
       </c>
       <c r="L42" s="4">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1957,16 +2245,16 @@
         <v>43754</v>
       </c>
       <c r="I43" s="3">
-        <v>-36</v>
+        <v>17.8</v>
       </c>
       <c r="J43" t="s">
         <v>7</v>
       </c>
       <c r="K43" s="4">
-        <v>-540.00</v>
+        <v>1</v>
       </c>
       <c r="L43" s="4">
-        <v>0.00</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
